--- a/AZRetail Mapping Document.xlsx
+++ b/AZRetail Mapping Document.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CFABBB-351A-407C-9A3D-58ECD6CB43DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FactOrders" sheetId="6" r:id="rId1"/>
+    <sheet name="DimCustomer" sheetId="1" r:id="rId2"/>
+    <sheet name="DimLocation" sheetId="2" r:id="rId3"/>
+    <sheet name="DimTime" sheetId="3" r:id="rId4"/>
+    <sheet name="DimStore" sheetId="4" r:id="rId5"/>
+    <sheet name="DimProduct" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,308 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="98">
+  <si>
+    <t>OLTP DATABASE</t>
+  </si>
+  <si>
+    <t>COLUMN</t>
+  </si>
+  <si>
+    <t>DATATYPE</t>
+  </si>
+  <si>
+    <t>ISPRIMARYKEY</t>
+  </si>
+  <si>
+    <t>ALLOWS NULL</t>
+  </si>
+  <si>
+    <t>DWH DATABASE</t>
+  </si>
+  <si>
+    <t>BUSINESS RULE</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>AddressNumber</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>DimCustomer</t>
+  </si>
+  <si>
+    <t>CustomerKey</t>
+  </si>
+  <si>
+    <t>LocationKey</t>
+  </si>
+  <si>
+    <t>IsDeleted</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>Lookup in DimLocation based on AddressNumber</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Calculated field CDC ETL</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>DimLocation</t>
+  </si>
+  <si>
+    <t>LocationID</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>SCD II</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>CustomerNumber</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>ShipDate</t>
+  </si>
+  <si>
+    <t>DateLastContact</t>
+  </si>
+  <si>
+    <t>SotreNumber</t>
+  </si>
+  <si>
+    <t>DimTime</t>
+  </si>
+  <si>
+    <t>TimeKey</t>
+  </si>
+  <si>
+    <t>FullDateTime</t>
+  </si>
+  <si>
+    <t>YearNo</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>WeekNo</t>
+  </si>
+  <si>
+    <t>DayNo</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+  </si>
+  <si>
+    <t>Calculated fields based on Order and Ship Dates. ETL SQL Script. Updated with stored proc AZRetailDWH.create_new_dim_time</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>StoreID</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>DivisionID</t>
+  </si>
+  <si>
+    <t>DimStore</t>
+  </si>
+  <si>
+    <t>StoreKey</t>
+  </si>
+  <si>
+    <t>StoreName</t>
+  </si>
+  <si>
+    <t>DivisionName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup by DivisionID in Division </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCD II </t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>SMALLMONEY</t>
+  </si>
+  <si>
+    <t>CHAR(2)</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>DimProduct</t>
+  </si>
+  <si>
+    <t>ProductKey</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>ProductPrice</t>
+  </si>
+  <si>
+    <t>ProductCost</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Lookup CategoryName from dbo.Category on Category</t>
+  </si>
+  <si>
+    <t>FactOrders</t>
+  </si>
+  <si>
+    <t>Oders</t>
+  </si>
+  <si>
+    <t>OrderDetails</t>
+  </si>
+  <si>
+    <t>LINENO</t>
+  </si>
+  <si>
+    <t>ProductNumber</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>SalesDateKey</t>
+  </si>
+  <si>
+    <t>LineNumber</t>
+  </si>
+  <si>
+    <t>LineSale</t>
+  </si>
+  <si>
+    <t>LineProfit</t>
+  </si>
+  <si>
+    <t>StoreNumber</t>
+  </si>
+  <si>
+    <t>Lookup DimCustomer on CustomerID</t>
+  </si>
+  <si>
+    <t>Lookup DimTime on OrderDate</t>
+  </si>
+  <si>
+    <t>Lookup DimTime on ShipDate</t>
+  </si>
+  <si>
+    <t>Lookup DimStore on OrderDate</t>
+  </si>
+  <si>
+    <t>Lookup  DimProduct on ProductNumber</t>
+  </si>
+  <si>
+    <t>Lookup Price from DimProduct. Multiply by Quantity</t>
+  </si>
+  <si>
+    <t>Lookup Cost from DimProduct. Multiply by Quantity</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +333,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +393,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
+    <cellStyle name="60% - Accent6" xfId="4" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +729,1777 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6566A74-FC92-47A5-8996-82CDC07A181F}">
+  <dimension ref="B2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F854B5-9FEE-45DE-B10E-5F7026A116EB}">
+  <dimension ref="B2:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA20EE6-196A-4074-967F-D4085C27E45B}">
+  <dimension ref="B2:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L5:O10"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE1FE90-D6D6-4A66-BB72-0423CD6B0D77}">
+  <dimension ref="B2:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9984BD-BEA9-4C1F-8BA1-538F3D03DA47}">
+  <dimension ref="B2:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>